--- a/All_objects.xlsx
+++ b/All_objects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="337">
   <si>
     <t>Location</t>
   </si>
@@ -370,6 +370,9 @@
     <t>Trades</t>
   </si>
   <si>
+    <t>Steal</t>
+  </si>
+  <si>
     <t>['[Macho Brace: lifter]']</t>
   </si>
   <si>
@@ -403,12 +406,12 @@
     <t>['[TM19: Giga Drain, Snoop]']</t>
   </si>
   <si>
+    <t>["[B: ['26', '10'], HP Up]", "[B: ['107', '10'], Big Pearl]", "[H: ['12', '17'], Max Ether]"]</t>
+  </si>
+  <si>
     <t>['[Eviolite: Tuber Liz, Ricosheep | F | Lv X]', '[Eviolite: Tuber Liz, Kekroach | F | Lv X]', '[Eviolite: Tuber Liz, Praunch | F | Lv X]', '[Eviolite: Tuber Meduka, Chezetta | F | Lv X-3]', '[Eviolite: Channeler Chanel, Singlets | Lv 65]', '[Eviolite: Channeler Chanel, Flowre | F | Lv X-3]', '[Eviolite: Channeler Chanel, Dubus | Lv 66]']</t>
   </si>
   <si>
-    <t>["[B: ['26', '10'], HP Up]", "[B: ['107', '10'], Big Pearl]", "[H: ['12', '17'], Max Ether]"]</t>
-  </si>
-  <si>
     <t>["[B: ['43', '31'], TM36]", "[B: ['31', '22'], Iron]"]</t>
   </si>
   <si>
@@ -418,12 +421,12 @@
     <t>["[Rocky Helmet: Karma Sub HQ's exit]", '[Lax Incense: inebriated man]']</t>
   </si>
   <si>
+    <t>["[B: ['13', '8'], Rocky Helmet]", "[B: ['0', '9'], Potion]", "[B: ['13', '8'], Fresh Water]", "[B: ['10', '9'], Repeat Ball]", "[B: ['4', '6'], Revive]"]</t>
+  </si>
+  <si>
     <t>['[Nugget: Merchant Rosenberg, Chompest | M | Lv 40]', '[Nugget: Merchant Abraham, Chantruth | M | Lv 44]']</t>
   </si>
   <si>
-    <t>["[B: ['13', '8'], Rocky Helmet]", "[B: ['0', '9'], Potion]", "[B: ['13', '8'], Fresh Water]", "[B: ['10', '9'], Repeat Ball]", "[B: ['4', '6'], Revive]"]</t>
-  </si>
-  <si>
     <t>['[TM45: Attract, little girl in the western house]']</t>
   </si>
   <si>
@@ -457,12 +460,12 @@
     <t>['[Razor Claw: route master]', '[Scope Lens: route master]']</t>
   </si>
   <si>
+    <t>["[B: ['32', '52'], Big Mushroom]", "[B: ['65', '49'], PP Up]", "[B: ['56', '64'], Hyper Potion]", "[B: ['34', '72'], Nugget]", "[B: ['5', '13'], Rare Candy]", "[H: ['7', '28'], Star Piece]"]</t>
+  </si>
+  <si>
     <t>['[Eviolite: Fisherman Benny, Randomix | M | Lv X]', '[Eviolite: Fucking Communist, Missletoe | M | Lv X-3]', '[Eviolite: Bird Keeper Pixy, Pixila | F | Lv X+2]', '[Nugget: Merchant Moishe, Vaultevour | M | Lv X-1]', '[Toxic Orb: Bouncer Token, Ebolable | M | Lv X-4]', '[Poké Ball: Bouncer Token, Vandash | M | Lv X]']</t>
   </si>
   <si>
-    <t>["[B: ['32', '52'], Big Mushroom]", "[B: ['65', '49'], PP Up]", "[B: ['56', '64'], Hyper Potion]", "[B: ['34', '72'], Nugget]", "[B: ['5', '13'], Rare Candy]", "[H: ['7', '28'], Star Piece]"]</t>
-  </si>
-  <si>
     <t>['[Toxic Orb: B2F]']</t>
   </si>
   <si>
@@ -484,24 +487,24 @@
     <t>['[Pyongnome / Nature: Brave / Ability: Intimidate / Held item: Monster Ball / Dresser: Richard | M / ID: 49662\n   Give: Fuermiga]', '[Gangnome / Nature: Naughty / Ability: Soundproof / Held item: Choice Specs / Dresser: Johnson | M / ID: 28801\n   Give: Apartmant]']</t>
   </si>
   <si>
+    <t>["[B: ['37', '52'], Monster Ball]", "[B: ['20', '58'], Max Ether]", "[B: ['9', '71'], Focus Sash]", "[B: ['7', '76'], Fast Ball]", "[B: ['26', '77'], Carbos]", "[B: ['21', '124'], Rare Candy]", "[B: ['20', '104'], Zinc]", "[H: ['15', '74'], Bottlecap]"]</t>
+  </si>
+  <si>
     <t>['[Chople Berry: Private Cliffe, Cannonance | M | Lv X]', '[Eviolite: Private Cliffe, Triggedon | M | Lv X-5]']</t>
   </si>
   <si>
-    <t>["[B: ['37', '52'], Monster Ball]", "[B: ['20', '58'], Max Ether]", "[B: ['9', '71'], Focus Sash]", "[B: ['7', '76'], Fast Ball]", "[B: ['26', '77'], Carbos]", "[B: ['21', '124'], Rare Candy]", "[B: ['20', '104'], Zinc]", "[H: ['15', '74'], Bottlecap]"]</t>
-  </si>
-  <si>
     <t>["[B: ['41', '3'], Lemonade]", "[B: ['9', '2'], Super Repel]", "[B: ['1', '27'], Star Piece]", "[B: ['43', '36'], TM48]"]</t>
   </si>
   <si>
     <t>['[TM48: Skill Swap, southeast]']</t>
   </si>
   <si>
+    <t>["[B: ['85', '7'], Barbed Ball]", "[B: ['109', '17'], Max Repel]", "[H: ['20', '5'], Shuca Berry]"]</t>
+  </si>
+  <si>
     <t>['[Lucky Egg: Lifter Gaston, Chancer | F | Lv X-4]']</t>
   </si>
   <si>
-    <t>["[B: ['85', '7'], Barbed Ball]", "[B: ['109', '17'], Max Repel]", "[H: ['20', '5'], Shuca Berry]"]</t>
-  </si>
-  <si>
     <t>['[Shell Bell: 1F]']</t>
   </si>
   <si>
@@ -520,12 +523,12 @@
     <t>['[Expert Belt: route master]']</t>
   </si>
   <si>
+    <t>["[B: ['39', '17'], Smooth Rock]", "[B: ['37', '86'], Rare Candy]", "[B: ['10', '111'], Pearl]", "[B: ['6', '45'], Max Potion]", "[H: ['29', '19'], Revive]", "[H: ['77', '29'], Yellow Shard]", "[H: ['123', '22'], Stardust]"]</t>
+  </si>
+  <si>
     <t>['[Eviolite: Super Nerd Bobby, Tankube | Lv X]', '[Soft Sand: Smogoon Dastan, Knokedge | M | Lv X-3]', '[Eviolite: Smogoon Dastan, Egylamp | M | Lv X-1]', '[Eviolite: Black Belt Traynor, Bruhkid | M | Lv X-5]', '[Eviolite: Black Belt Traynor, Bruhkid | M | Lv X-4]', '[Soft Sand: Black Belt Traynor, Ubruh | M | Lv X-3]']</t>
   </si>
   <si>
-    <t>["[B: ['39', '17'], Smooth Rock]", "[B: ['37', '86'], Rare Candy]", "[B: ['10', '111'], Pearl]", "[B: ['6', '45'], Max Potion]", "[H: ['29', '19'], Revive]", "[H: ['77', '29'], Yellow Shard]", "[H: ['123', '22'], Stardust]"]</t>
-  </si>
-  <si>
     <t>['[Destiny Knot: after defeating all Midgets]']</t>
   </si>
   <si>
@@ -577,12 +580,12 @@
     <t>['[Baloofang / Nature: Timid / Ability: Aftermath / Held item: Flame Orb / Dresser: Chungus | M / ID: 4421\n   Give: Baloofang]', '[Pearchie / Nature: Relaxed / Ability: Reckless / Held item: White Herb / Dresser: Phil | M / ID: 31344\n   Give: Walruskie]', '[Pasdawg / Nature: Hardy / Ability: Intimidate / Held item: Protein / Dresser: Royce | M / ID: 28182\n   Give: Tikoon]']</t>
   </si>
   <si>
+    <t>["[B: ['3', '21'], HP Up]"]</t>
+  </si>
+  <si>
     <t>['[Light Clay: Neo Karma Grunt, Chanolour | F | Lv X-3]', '[Leftovers: Neo Karma Grunt, Upbeddit | M | Lv X-1]', '[Sharp Beak: Neo Karma Grunt, Thundacock | M | Lv X-2]']</t>
   </si>
   <si>
-    <t>["[B: ['3', '21'], HP Up]"]</t>
-  </si>
-  <si>
     <t>["[B: ['14', '28'], Star Piece]", "[H: ['23', '5'], Tinymushroom]"]</t>
   </si>
   <si>
@@ -598,12 +601,12 @@
     <t>['[Mental Herb: post-game]']</t>
   </si>
   <si>
+    <t>["[B: ['14', '5'], Mental Herb]", "[H: ['3', '18'], Tinymushroom]", "[H: ['63', '18'], Yellow Shard]"]</t>
+  </si>
+  <si>
     <t>['[Eviolite: Bouncer Banks, Rolango | F | Lv X-2]']</t>
   </si>
   <si>
-    <t>["[B: ['14', '5'], Mental Herb]", "[H: ['3', '18'], Tinymushroom]", "[H: ['63', '18'], Yellow Shard]"]</t>
-  </si>
-  <si>
     <t>["[B: ['0', '4'], Luxury Ball]", "[B: ['19', '19'], Super Potion]", "[B: ['22', '19'], Rude Ball]", "[B: ['7', '18'], Max Revive]", "[B: ['9', '12'], Up-Grade]", "[B: ['14', '16'], Max Potion]", "[B: ['17', '16'], Ether]", "[B: ['14', '6'], DDT Spray]", "[B: ['0', '5'], HP Up]", "[H: ['0', '10'], Berry Juice]", "[H: ['10', '4'], Weed]", "[H: ['0', '5'], Stardust]", "[H: ['27', '13'], Quick Ball]", "[H: ['24', '10'], Full Restore]"]</t>
   </si>
   <si>
@@ -616,12 +619,12 @@
     <t>['[Power Herb: B1F]', '[Safety Goggles: 2F]', '[Rocky Helmet: Summit]']</t>
   </si>
   <si>
+    <t>["[B: ['24', '52'], Dream Ball]", "[B: ['40', '55'], Full Restore]", "[B: ['44', '22'], Terrain Ext.]", "[B: ['36', '36'], Max Revive]", "[B: ['1', '26'], Max Revive]", "[B: ['28', '49'], Dusk Ball]", "[B: ['7', '46'], Power Herb]", "[B: ['7', '7'], Thicc Bone]", "[B: ['6', '10'], Rare Bone]", "[B: ['10', '6'], Rare Bone]", "[B: ['4', '8'], Rare Bone]", "[B: ['5', '5'], Rare Bone]", "[B: ['48', '12'], Hyper Potion]", "[B: ['9', '40'], Dream Ball]", "[B: ['15', '25'], Revive]", "[B: ['25', '26'], Full Restore]", "[B: ['16', '13'], Dusk Ball]", "[B: ['53', '45'], Safety Specs]", "[B: ['17', '10'], Full Heal]", "[B: ['12', '14'], Monster Ball]", "[B: ['25', '22'], Rocky Helmet]", "[B: ['13', '28'], Elixir]", "[B: ['37', '23'], Star Piece]", "[B: ['12', '7'], Revival Herb]", "[H: ['10', '26'], Starf Berry]", "[H: ['36', '13'], Green Shard]", "[H: ['23', '16'], Nugget]", "[H: ['27', '36'], Sun Stone]"]</t>
+  </si>
+  <si>
     <t>['[Sitrus Berry: Neo Karma Grunt, Bulbapedo | M | Lv X-3]', '[Quick Claw: Neo Karma Grunt, Upbeddit | F | Lv X-2]', '[Custap Berry: Neo Karma Grunt, Senketula | F | Lv X-2]', '[Custap Berry: Neo Karma Grunt, Jerkle | Lv X-3]', '[Colbur Berry: Neo Karma Grunt, Upbeddit | F | Lv X-3]', '[Air Balloon: Neo Karma Grunt, Cansumor | M | Lv X-3]']</t>
   </si>
   <si>
-    <t>["[B: ['24', '52'], Dream Ball]", "[B: ['40', '55'], Full Restore]", "[B: ['44', '22'], Terrain Ext.]", "[B: ['36', '36'], Max Revive]", "[B: ['1', '26'], Max Revive]", "[B: ['28', '49'], Dusk Ball]", "[B: ['7', '46'], Power Herb]", "[B: ['7', '7'], Thicc Bone]", "[B: ['6', '10'], Rare Bone]", "[B: ['10', '6'], Rare Bone]", "[B: ['4', '8'], Rare Bone]", "[B: ['5', '5'], Rare Bone]", "[B: ['48', '12'], Hyper Potion]", "[B: ['9', '40'], Dream Ball]", "[B: ['15', '25'], Revive]", "[B: ['25', '26'], Full Restore]", "[B: ['16', '13'], Dusk Ball]", "[B: ['53', '45'], Safety Specs]", "[B: ['17', '10'], Full Heal]", "[B: ['12', '14'], Monster Ball]", "[B: ['25', '22'], Rocky Helmet]", "[B: ['13', '28'], Elixir]", "[B: ['37', '23'], Star Piece]", "[B: ['12', '7'], Revival Herb]", "[H: ['10', '26'], Starf Berry]", "[H: ['36', '13'], Green Shard]", "[H: ['23', '16'], Nugget]", "[H: ['27', '36'], Sun Stone]"]</t>
-  </si>
-  <si>
     <t>['[HM08: Rock Climb, Nomel]']</t>
   </si>
   <si>
@@ -676,12 +679,12 @@
     <t>["[B: ['38', '7'], Ultra Ball]", "[B: ['19', '23'], Max Ether]", "[B: ['1', '7'], Bottlecap]", "[B: ['4', '5'], Iron]"]</t>
   </si>
   <si>
+    <t>["[B: ['17', '58'], Max Revive]", "[B: ['21', '22'], Hard Stone]", "[B: ['35', '25'], Fire Stone]", "[B: ['81', '28'], Leaf Stone]", "[B: ['7', '55'], TM47]", "[H: ['34', '33'], X Accuracy]", "[H: ['53', '46'], Ultra Ball]", "[H: ['74', '9'], Burn Heal]", "[H: ['8', '43'], Red Shard]", "[H: ['25', '55'], Green Shard]", "[H: ['10', '22'], Burn Heal]", "[H: ['56', '14'], Yellow Shard]", "[H: ['46', '21'], Blue Shard]", "[H: ['37', '45'], Max Ether]", "[H: ['74', '39'], Fresh Water]"]</t>
+  </si>
+  <si>
     <t>['[Choice Band: Fucking Dick, Motherfuck | M | Lv 31]', '[Berry Juice: Camper Bear, Urswine | M | Lv 32]', '[Liechi Berry: Black Belt Ryu, Chasumo | M | Lv 30]', '[Never-Melt Ice: Meth Cookers Walt &amp; Jess, Whizzard | F | Lv 32]', '[Miracle Seed: Meth Cookers Walt &amp; Jess, Mariguana | F | Lv 32]']</t>
   </si>
   <si>
-    <t>["[B: ['17', '58'], Max Revive]", "[B: ['21', '22'], Hard Stone]", "[B: ['35', '25'], Fire Stone]", "[B: ['81', '28'], Leaf Stone]", "[B: ['7', '55'], TM47]", "[H: ['34', '33'], X Accuracy]", "[H: ['53', '46'], Ultra Ball]", "[H: ['74', '9'], Burn Heal]", "[H: ['8', '43'], Red Shard]", "[H: ['25', '55'], Green Shard]", "[H: ['10', '22'], Burn Heal]", "[H: ['56', '14'], Yellow Shard]", "[H: ['46', '21'], Blue Shard]", "[H: ['37', '45'], Max Ether]", "[H: ['74', '39'], Fresh Water]"]</t>
-  </si>
-  <si>
     <t>['[TM31: Brick Break, B1F, old man]', '[TM47: Steel Wing, B1F, southwest]']</t>
   </si>
   <si>
@@ -691,57 +694,57 @@
     <t>["[B: ['7', '5'], Potion]"]</t>
   </si>
   <si>
+    <t>["[B: ['21', '1'], X Attack]", "[B: ['61', '6'], TM49]", "[B: ['48', '1'], X Speed]", "[H: ['34', '17'], Charti Berry]", "[H: ['20', '22'], Yache Berry]", "[H: ['13', '11'], Shuca Berry]", "[H: ['52', '9'], Blue Shard]", "[H: ['63', '17'], Poké Ball]", "[H: ['65', '21'], Antidote]", "[H: ['26', '10'], Cheri Berry]", "[H: ['68', '19'], Potion]"]</t>
+  </si>
+  <si>
     <t>['[Eviolite: Hiker Blondie, Triggedon | M | Lv 33]']</t>
   </si>
   <si>
-    <t>["[B: ['21', '1'], X Attack]", "[B: ['61', '6'], TM49]", "[B: ['48', '1'], X Speed]", "[H: ['34', '17'], Charti Berry]", "[H: ['20', '22'], Yache Berry]", "[H: ['13', '11'], Shuca Berry]", "[H: ['52', '9'], Blue Shard]", "[H: ['63', '17'], Poké Ball]", "[H: ['65', '21'], Antidote]", "[H: ['26', '10'], Cheri Berry]", "[H: ['68', '19'], Potion]"]</t>
-  </si>
-  <si>
     <t>['[TM49: Snatch, among the fenced off grass, west of the tower]']</t>
   </si>
   <si>
     <t>['[Iron Ball: route master]']</t>
   </si>
   <si>
+    <t>["[B: ['28', '24'], Rasta Ball]", "[B: ['31', '30'], Rare Candy]", "[B: ['23', '55'], PP Up]", "[B: ['30', '108'], TM11]", "[H: ['16', '4'], Salac Berry]", "[H: ['15', '95'], Paralyz Heal]", "[H: ['14', '97'], Hyper Potion]", "[H: ['8', '98'], Ultra Ball]", "[H: ['12', '144'], Max Potion]", "[H: ['32', '123'], Big Pearl]", "[H: ['32', '86'], Big Pearl]", "[H: ['16', '121'], Green Shard]", "[H: ['33', '154'], Revive]"]</t>
+  </si>
+  <si>
     <t>['[Silk Scarf: Ace Trainer Draco, Draconius | M | Lv 50]']</t>
   </si>
   <si>
-    <t>["[B: ['28', '24'], Rasta Ball]", "[B: ['31', '30'], Rare Candy]", "[B: ['23', '55'], PP Up]", "[B: ['30', '108'], TM11]", "[H: ['16', '4'], Salac Berry]", "[H: ['15', '95'], Paralyz Heal]", "[H: ['14', '97'], Hyper Potion]", "[H: ['8', '98'], Ultra Ball]", "[H: ['12', '144'], Max Potion]", "[H: ['32', '123'], Big Pearl]", "[H: ['32', '86'], Big Pearl]", "[H: ['16', '121'], Green Shard]", "[H: ['33', '154'], Revive]"]</t>
-  </si>
-  <si>
     <t>['[TM11: Sunny Day, on the island with the Youngster]']</t>
   </si>
   <si>
     <t>["[King's Rock]"]</t>
   </si>
   <si>
+    <t>["[B: ['7', '6'], Max Revive]", "[B: ['20', '16'], Junk Ball]", "[B: ['54', '11'], TM43]", "[B: ['41', '9'], Ultra Ball]", "[B: ['78', '22'], Hyper Potion]", "[B: ['68', '9'], King's Rock]", "[B: ['93', '5'], Nugget]", "[H: ['31', '22'], Heal Ball]", "[H: ['82', '6'], Red Shard]"]</t>
+  </si>
+  <si>
     <t>['[Eviolite: Fucking Sniper, Tankube | Lv 50]', '[Leftovers: Fucking Sniper, Piguson | M | Lv 43]']</t>
   </si>
   <si>
-    <t>["[B: ['7', '6'], Max Revive]", "[B: ['20', '16'], Junk Ball]", "[B: ['54', '11'], TM43]", "[B: ['41', '9'], Ultra Ball]", "[B: ['78', '22'], Hyper Potion]", "[B: ['68', '9'], King's Rock]", "[B: ['93', '5'], Nugget]", "[H: ['31', '22'], Heal Ball]", "[H: ['82', '6'], Red Shard]"]</t>
-  </si>
-  <si>
     <t>['[TM43: Secret Power, in the middle of the route, between a big rock and a smashable rock | requires Rock Smash]']</t>
   </si>
   <si>
+    <t>["[B: ['82', '5'], Full Restore]", "[B: ['85', '28'], TM18]", "[B: ['60', '24'], Max Repel]", "[H: ['31', '11'], Blue Shard]", "[H: ['49', '21'], Revive]", "[H: ['29', '20'], Star Piece]", "[H: ['6', '18'], Great Ball]"]</t>
+  </si>
+  <si>
     <t>['[Chople Berry: Rocker Luca, Galavire | Lv 50]', '[Leftovers: Youngster Joey, Motherfuck | M | Lv 42]']</t>
   </si>
   <si>
-    <t>["[B: ['82', '5'], Full Restore]", "[B: ['85', '28'], TM18]", "[B: ['60', '24'], Max Repel]", "[H: ['31', '11'], Blue Shard]", "[H: ['49', '21'], Revive]", "[H: ['29', '20'], Star Piece]", "[H: ['6', '18'], Great Ball]"]</t>
-  </si>
-  <si>
     <t>['[TM18: Rain Dance, south]']</t>
   </si>
   <si>
     <t>['[White Herb]']</t>
   </si>
   <si>
+    <t>["[B: ['7', '25'], White Herb]", "[B: ['4', '7'], Full Heal]", "[H: ['20', '22'], Net Ball]", "[H: ['8', '44'], Rawst Berry]"]</t>
+  </si>
+  <si>
     <t>['[Salac Berry: Ace Trainer Helga, Honrade | M | Lv 51]']</t>
   </si>
   <si>
-    <t>["[B: ['7', '25'], White Herb]", "[B: ['4', '7'], Full Heal]", "[H: ['20', '22'], Net Ball]", "[H: ['8', '44'], Rawst Berry]"]</t>
-  </si>
-  <si>
     <t>["[B: ['13', '23'], Quick Ball]", "[H: ['50', '20'], Custap Berry]", "[H: ['23', '5'], Elixir]"]</t>
   </si>
   <si>
@@ -754,12 +757,12 @@
     <t>['[TM42: Facade, east]']</t>
   </si>
   <si>
+    <t>["[B: ['14', '33'], Super Potion]", "[H: ['27', '9'], X Attack]"]</t>
+  </si>
+  <si>
     <t>['[Flying Gem: Gamer Jocker, Nonegative | Lv 35]', '[Steel Gem: Gamer Jocker, Bukitlee | Lv 34]']</t>
   </si>
   <si>
-    <t>["[B: ['14', '33'], Super Potion]", "[H: ['27', '9'], X Attack]"]</t>
-  </si>
-  <si>
     <t>["[B: ['84', '21'], Super Repel]", "[B: ['7', '10'], Super Potion]", "[B: ['69', '15'], Iron]", "[H: ['66', '8'], Tinymushroom]"]</t>
   </si>
   <si>
@@ -796,18 +799,18 @@
     <t>["[B: ['13', '19'], Max Elixir]"]</t>
   </si>
   <si>
+    <t>["[B: ['21', '23'], Elixir]", "[H: ['13', '18'], Soda Pop]"]</t>
+  </si>
+  <si>
     <t>['[Oran Berry: Youngster Kent, Ribbizap | M | Lv 19]', '[Sitrus Berry: Furry Mittens, Cloucat | M | Lv 19]', '[Oran Berry: Camper Frank, Krokling | M | Lv 19]', '[Sitrus Berry: Camper Frank, Faeriock | M | Lv 20]', '[Sitrus Berry: Lifter Greg, Reptyke | M | Lv 21]', '[Amulet Coin: Merchant Goldberg, Chantruth | M | Lv 22]']</t>
   </si>
   <si>
-    <t>["[B: ['21', '23'], Elixir]", "[H: ['13', '18'], Soda Pop]"]</t>
+    <t>["[B: ['92', '30'], X Special]", "[B: ['70', '2'], Super Repel]", "[B: ['91', '15'], Ice Heal]", "[B: ['9', '12'], Calcium]", "[H: ['9', '4'], Stardust]", "[H: ['47', '28'], Tinymushroom]", "[H: ['58', '15'], Super Repel]", "[H: ['93', '18'], Everstone]", "[H: ['52', '27'], Green Shard]", "[H: ['93', '11'], Tinymushroom]", "[H: ['63', '21'], Great Ball]", "[H: ['28', '9'], Potion]"]</t>
   </si>
   <si>
     <t>['[Salac Berry: Smogoon Josh, Smogaroben | F | Lv 24]', '[Sitrus Berry: Theorist John, Ayylamo | F | Lv 25]', '[Oran Berry: Fucking Noob, Dragun | M | Lv 23]']</t>
   </si>
   <si>
-    <t>["[B: ['92', '30'], X Special]", "[B: ['70', '2'], Super Repel]", "[B: ['91', '15'], Ice Heal]", "[B: ['9', '12'], Calcium]", "[H: ['9', '4'], Stardust]", "[H: ['47', '28'], Tinymushroom]", "[H: ['58', '15'], Super Repel]", "[H: ['93', '18'], Everstone]", "[H: ['52', '27'], Green Shard]", "[H: ['93', '11'], Tinymushroom]", "[H: ['63', '21'], Great Ball]", "[H: ['28', '9'], Potion]"]</t>
-  </si>
-  <si>
     <t>["[B: ['16', '28'], Carbos]", "[B: ['10', '101'], Max Potion]", "[B: ['11', '6'], TM50]", "[H: ['3', '18'], Big Mushroom]", "[H: ['21', '41'], Big Mushroom]", "[H: ['10', '67'], Dusk Ball]"]</t>
   </si>
   <si>
@@ -820,24 +823,24 @@
     <t>['[Big Root: route master]']</t>
   </si>
   <si>
+    <t>["[B: ['14', '6'], Metal Coat]", "[B: ['33', '9'], Ultra Ball]", "[B: ['34', '32'], Revive]", "[B: ['51', '5'], Hyper Potion]", "[B: ['56', '28'], PP Max]", "[B: ['61', '13'], Pearl]", "[B: ['81', '35'], Max Elixir]", "[B: ['105', '19'], Max Revive]", "[B: ['95', '23'], Calcium]", "[B: ['110', '35'], Full Restore]", "[B: ['128', '9'], Quick Ball]", "[B: ['142', '34'], PP Up]", "[B: ['140', '17'], Nugget]", "[H: ['33', '5'], Full Heal]", "[H: ['41', '31'], Green Shard]"]</t>
+  </si>
+  <si>
     <t>['[Watmel Berry: Gentleman oboma, Vandash | F | Lv 70]', '[Sitrus Berry: Gentleman oboma, Vandash | M | Lv 71]', '[Berry Juice: Gentleman oboma, Vandash | M | Lv 72]', '[Poké Ball: Gentleman oboma, Vandash | M | Lv 73]', '[Watmel Berry: Gentleman oboma, Vandash | F | Lv 74]', '[Focus Band: Gentleman oboma, Vandash | F | Lv 75]', '[Eviolite: Tranny Alec, Inbitween | M | Lv 70]', '[Eviolite: Furry Hooter, Masdawg | M | Lv 71]']</t>
   </si>
   <si>
-    <t>["[B: ['14', '6'], Metal Coat]", "[B: ['33', '9'], Ultra Ball]", "[B: ['34', '32'], Revive]", "[B: ['51', '5'], Hyper Potion]", "[B: ['56', '28'], PP Max]", "[B: ['61', '13'], Pearl]", "[B: ['81', '35'], Max Elixir]", "[B: ['105', '19'], Max Revive]", "[B: ['95', '23'], Calcium]", "[B: ['110', '35'], Full Restore]", "[B: ['128', '9'], Quick Ball]", "[B: ['142', '34'], PP Up]", "[B: ['140', '17'], Nugget]", "[H: ['33', '5'], Full Heal]", "[H: ['41', '31'], Green Shard]"]</t>
-  </si>
-  <si>
     <t>["[B: ['15', '8'], TM25]", "[B: ['24', '16'], Ultra Ball]", "[B: ['23', '55'], Carbos]", "[B: ['23', '70'], Nugget]", "[B: ['3', '61'], Metal Powder]", "[B: ['14', '139'], Elixir]", "[B: ['7', '99'], Barbed Ball]", "[B: ['7', '111'], Hyper Potion]", "[H: ['28', '123'], Blue Shard]", "[H: ['19', '118'], Red Shard]", "[H: ['27', '31'], Big Mushroom]"]</t>
   </si>
   <si>
     <t>['[TM25: Thunder, northwestern corner on top of the top waterfall | requires Waterfall]']</t>
   </si>
   <si>
+    <t>["[B: ['6', '5'], Fast Ball]", "[B: ['79', '19'], Zinc]", "[B: ['30', '16'], Max Repel]", "[H: ['33', '7'], Revive]", "[H: ['81', '10'], X Accuracy]"]</t>
+  </si>
+  <si>
     <t>['[Quick Claw: Hiker Landon, Shurismash | M | Lv 62]', '[Amulet Coin: Hiker Landon, Vaultevour | M | Lv 62]', '[B-Ball: Hiker Landon, Barbarkley | M | Lv 63]', '[Bright Powder: Hiker Landon, Senketula | M | Lv 64]', '[Sitrus Berry: Hiker Landon, Apartmant | M | Lv 63]']</t>
   </si>
   <si>
-    <t>["[B: ['6', '5'], Fast Ball]", "[B: ['79', '19'], Zinc]", "[B: ['30', '16'], Max Repel]", "[H: ['33', '7'], Revive]", "[H: ['81', '10'], X Accuracy]"]</t>
-  </si>
-  <si>
     <t>["[B: ['72', '2'], X Speed]", "[H: ['61', '8'], Great Ball]", "[H: ['94', '10'], Repel]", "[H: ['18', '13'], Awakening]", "[H: ['5', '11'], Revive]"]</t>
   </si>
   <si>
@@ -847,48 +850,48 @@
     <t>['[Lucky Egg]']</t>
   </si>
   <si>
+    <t>["[B: ['47', '6'], Lucky Egg]", "[B: ['23', '16'], Great Ball]", "[H: ['41', '32'], X Accuracy]", "[H: ['7', '36'], Paralyz Heal]", "[H: ['23', '24'], Net Ball]"]</t>
+  </si>
+  <si>
     <t>['[Salac Berry: Pokémon Ranger Artyom, Charagon | Lv 25]']</t>
   </si>
   <si>
-    <t>["[B: ['47', '6'], Lucky Egg]", "[B: ['23', '16'], Great Ball]", "[H: ['41', '32'], X Accuracy]", "[H: ['7', '36'], Paralyz Heal]", "[H: ['23', '24'], Net Ball]"]</t>
-  </si>
-  <si>
     <t>['[Weakness Policy: route master]']</t>
   </si>
   <si>
+    <t>["[B: ['10', '7'], Max Potion]", "[B: ['66', '20'], Calcium]", "[B: ['101', '8'], TM41]", "[B: ['136', '11'], Water Stone]", "[H: ['10', '19'], Iron]", "[H: ['54', '6'], Ether]", "[H: ['47', '7'], Tinymushroom]", "[H: ['87', '16'], Elixir]", "[H: ['76', '18'], X Speed]", "[H: ['105', '21'], Rare Candy]", "[H: ['108', '5'], Max Ether]", "[H: ['126', '23'], Super Repel]", "[H: ['138', '5'], Great Ball]", "[H: ['129', '20'], Super Potion]", "[H: ['159', '22'], Super Potion]", "[H: ['21', '7'], Great Ball]", "[H: ['116', '15'], Nugget]", "[H: ['131', '10'], Full Heal]", "[H: ['52', '14'], Burn Heal]", "[H: ['177', '6'], Revive]", "[H: ['153', '15'], Nest Ball]", "[H: ['74', '10'], Rare Candy]"]</t>
+  </si>
+  <si>
     <t>['[Mental Herb: Feminist Lilith, Fishnism | F | Lv 24]', '[Sitrus Berry: Stoner Wayne, Furnazi | M | Lv 24]', '[Leftovers: Stoner Wayne, Bongecko | M | Lv 25]']</t>
   </si>
   <si>
-    <t>["[B: ['10', '7'], Max Potion]", "[B: ['66', '20'], Calcium]", "[B: ['101', '8'], TM41]", "[B: ['136', '11'], Water Stone]", "[H: ['10', '19'], Iron]", "[H: ['54', '6'], Ether]", "[H: ['47', '7'], Tinymushroom]", "[H: ['87', '16'], Elixir]", "[H: ['76', '18'], X Speed]", "[H: ['105', '21'], Rare Candy]", "[H: ['108', '5'], Max Ether]", "[H: ['126', '23'], Super Repel]", "[H: ['138', '5'], Great Ball]", "[H: ['129', '20'], Super Potion]", "[H: ['159', '22'], Super Potion]", "[H: ['21', '7'], Great Ball]", "[H: ['116', '15'], Nugget]", "[H: ['131', '10'], Full Heal]", "[H: ['52', '14'], Burn Heal]", "[H: ['177', '6'], Revive]", "[H: ['153', '15'], Nest Ball]", "[H: ['74', '10'], Rare Candy]"]</t>
-  </si>
-  <si>
     <t>['[TM41: Torment, on top of the middle waterfall | requires Surf]']</t>
   </si>
   <si>
     <t>['[Soothe Bell: MooMoo Café]', '[Focus Band: route master]', '[Focus Sash: route master]']</t>
   </si>
   <si>
+    <t>["[B: ['7', '18'], Awakening]", "[B: ['34', '44'], Ultra Ball]", "[B: ['29', '96'], Super Potion]", "[B: ['12', '125'], Rare Candy]", "[H: ['31', '19'], Tinymushroom]", "[H: ['8', '5'], Timer Ball]", "[H: ['23', '45'], Burn Heal]", "[H: ['25', '58'], Yellow Shard]", "[H: ['27', '67'], Guard Spec.]", "[H: ['12', '57'], Red Shard]", "[H: ['16', '80'], Ether]", "[H: ['7', '120'], Full Restore]", "[H: ['32', '124'], HP Up]", "[H: ['17', '130'], Revive]", "[H: ['25', '76'], Ultra Ball]"]</t>
+  </si>
+  <si>
     <t>['[Choice Band: Lifter Chad, Muscledude | M | Lv 26]']</t>
   </si>
   <si>
-    <t>["[B: ['7', '18'], Awakening]", "[B: ['34', '44'], Ultra Ball]", "[B: ['29', '96'], Super Potion]", "[B: ['12', '125'], Rare Candy]", "[H: ['31', '19'], Tinymushroom]", "[H: ['8', '5'], Timer Ball]", "[H: ['23', '45'], Burn Heal]", "[H: ['25', '58'], Yellow Shard]", "[H: ['27', '67'], Guard Spec.]", "[H: ['12', '57'], Red Shard]", "[H: ['16', '80'], Ether]", "[H: ['7', '120'], Full Restore]", "[H: ['32', '124'], HP Up]", "[H: ['17', '130'], Revive]", "[H: ['25', '76'], Ultra Ball]"]</t>
-  </si>
-  <si>
     <t>["[B: ['21', '25'], Potion]", "[H: ['22', '5'], Aspear Berry]", "[H: ['3', '27'], Super Repel]"]</t>
   </si>
   <si>
+    <t>["[B: ['50', '3'], Dream Ball]", "[B: ['65', '10'], Super Potion]", "[H: ['35', '5'], Lum Berry]", "[H: ['42', '17'], Leppa Berry]"]</t>
+  </si>
+  <si>
     <t>['[Black Glasses: Lifter Jean Claude, Chasumo | M | Lv 33]']</t>
   </si>
   <si>
-    <t>["[B: ['50', '3'], Dream Ball]", "[B: ['65', '10'], Super Potion]", "[H: ['35', '5'], Lum Berry]", "[H: ['42', '17'], Leppa Berry]"]</t>
+    <t>["[B: ['10', '5'], Luxury Ball]", "[B: ['1', '10'], Smoke Ball]", "[B: ['5', '7'], TM05]", "[B: ['2', '4'], Potion]", "[B: ['3', '2'], Awakening]", "[B: ['1', '5'], Poké Ball]", "[B: ['2', '2'], Protein]", "[B: ['3', '2'], Max Ether]", "[H: ['21', '5'], Hyper Potion]", "[H: ['14', '11'], Max Elixir]", "[H: ['14', '4'], Leppa Berry]", "[H: ['14', '6'], Chople Berry]", "[H: ['14', '8'], Chesto Berry]", "[H: ['1', '7'], Oran Berry]"]</t>
   </si>
   <si>
     <t>['[Poison Barb: Team Karma Grunt, Burdmen | F | Lv 26]', '[Nugget: Merchant Aaron, Chompest | M | Lv 26]', '[Sitrus Berry: Team Karma Grunt, Chanolour | F | Lv 27]', '[Macho Brace: Barafag Brando, Hulkan | M | Lv 25]', '[Eviolite: Team Karma Grunt, Smogaroben | M | Lv 25]', '[Leftovers: Team Karma Grunt, Nomaestro | Lv 60]', '[Light Ball: Scientist Kayden, Pikotton | M | Lv 54]']</t>
   </si>
   <si>
-    <t>["[B: ['10', '5'], Luxury Ball]", "[B: ['1', '10'], Smoke Ball]", "[B: ['5', '7'], TM05]", "[B: ['2', '4'], Potion]", "[B: ['3', '2'], Awakening]", "[B: ['1', '5'], Poké Ball]", "[B: ['2', '2'], Protein]", "[B: ['3', '2'], Max Ether]", "[H: ['21', '5'], Hyper Potion]", "[H: ['14', '11'], Max Elixir]", "[H: ['14', '4'], Leppa Berry]", "[H: ['14', '6'], Chople Berry]", "[H: ['14', '8'], Chesto Berry]", "[H: ['1', '7'], Oran Berry]"]</t>
-  </si>
-  <si>
     <t>['[TM05: Roar, in the first room from left]']</t>
   </si>
   <si>
@@ -907,21 +910,21 @@
     <t>['[HM06: Rock Smash, some dude in rest house]']</t>
   </si>
   <si>
+    <t>["[H: ['20', '18'], Blue Shard]"]</t>
+  </si>
+  <si>
     <t>['[Choice Band: Feminist Vera, Seamapan | F | Lv X]', '[Chesto Berry: Feminist Vera, Sjwhale | F | Lv X-2]', '[Air Balloon: Feminist Vera, Pikotton | M | Lv X-3]', '[Bacon Strip: Feminist Gloria, Urswine | M | Lv X-3]']</t>
   </si>
   <si>
-    <t>["[H: ['20', '18'], Blue Shard]"]</t>
-  </si>
-  <si>
     <t>['[Burn Drive: Hackerman]', '[Chill Drive: Hackerman]', '[Douse Drive: Hackerman]', '[Shock Drive: Hackerman]']</t>
   </si>
   <si>
+    <t>["[B: ['20', '6'], Full Restore]", "[B: ['54', '38'], Bottlecap]", "[B: ['5', '68'], Iron]", "[B: ['3', '2'], Porn Drive]", "[B: ['1', '2'], Luxury Ball]", "[B: ['11', '14'], Binding Band]", "[B: ['17', '3'], Revival Herb]", "[H: ['5', '21'], Bottlecap]", "[H: ['28', '5'], Stardust]", "[H: ['17', '38'], Star Piece]", "[H: ['57', '60'], Stardust]", "[H: ['61', '79'], Pearl]", "[H: ['44', '69'], Big Pearl]", "[H: ['2', '3'], Green Shard]", "[H: ['16', '2'], Dive Ball]", "[H: ['19', '9'], Awakening]", "[H: ['5', '2'], Big Pearl]"]</t>
+  </si>
+  <si>
     <t>['[Eviolite: Terrorist Abu Hajar, Illuminowl | M | Lv X]', '[Eviolite: Memer Kana, Fireshitwi | F | Lv X-1]', '[Eviolite: Swimmer Jamie, Walruse | M | Lv X-5]']</t>
   </si>
   <si>
-    <t>["[B: ['20', '6'], Full Restore]", "[B: ['54', '38'], Bottlecap]", "[B: ['5', '68'], Iron]", "[B: ['3', '2'], Porn Drive]", "[B: ['1', '2'], Luxury Ball]", "[B: ['11', '14'], Binding Band]", "[B: ['17', '3'], Revival Herb]", "[H: ['5', '21'], Bottlecap]", "[H: ['28', '5'], Stardust]", "[H: ['17', '38'], Star Piece]", "[H: ['57', '60'], Stardust]", "[H: ['61', '79'], Pearl]", "[H: ['44', '69'], Big Pearl]", "[H: ['2', '3'], Green Shard]", "[H: ['16', '2'], Dive Ball]", "[H: ['19', '9'], Awakening]", "[H: ['5', '2'], Big Pearl]"]</t>
-  </si>
-  <si>
     <t>["[B: ['11', '14'], Soft Sand]", "[B: ['52', '20'], Rare Candy]", "[B: ['15', '6'], Bottlecap]"]</t>
   </si>
   <si>
@@ -946,12 +949,12 @@
     <t>['[Choice Scarf: Neo Karma Grunt, Lizakbar | M | Lv X-3]']</t>
   </si>
   <si>
+    <t>["[B: ['32', '50'], Big Pearl]", "[B: ['35', '109'], Iapapa Berry]", "[B: ['4', '106'], Weed]", "[H: ['12', '28'], Heart Scale]", "[H: ['15', '125'], Heart Scale]"]</t>
+  </si>
+  <si>
     <t>['[Eviolite: Triathlete Alonzo, Manatorque | M | Lv X]', '[Eviolite: Swimmer Agusto, Flowre | F | Lv X]', '[Leftovers: Swimmer Agusto, Seamapan | F | Lv X]']</t>
   </si>
   <si>
-    <t>["[B: ['32', '50'], Big Pearl]", "[B: ['35', '109'], Iapapa Berry]", "[B: ['4', '106'], Weed]", "[H: ['12', '28'], Heart Scale]", "[H: ['15', '125'], Heart Scale]"]</t>
-  </si>
-  <si>
     <t>['[Choice Scarf: Captain Cut]']</t>
   </si>
   <si>
@@ -985,10 +988,10 @@
     <t>["[H: ['6', '5'], Antidote]", "[H: ['5', '34'], Potion]", "[H: ['3', '19'], Paralyz Heal]", "[H: ['2', '47'], Ice Heal]", "[H: ['6', '61'], Ether]", "[H: ['14', '3'], Awakening]", "[H: ['29', '4'], Potion]", "[H: ['53', '2'], Antidote]", "[H: ['77', '5'], Repel]"]</t>
   </si>
   <si>
+    <t>["[B: ['15', '6'], Rare Candy]", "[B: ['10', '28'], Sun Stone]", "[B: ['9', '7'], TM22]", "[B: ['41', '29'], Dragon Fang]", "[B: ['30', '14'], Max Potion]", "[B: ['29', '37'], TM01]", "[H: ['26', '30'], Quick Ball]"]</t>
+  </si>
+  <si>
     <t>['[Choice Band: Lifter Arnold, Kuuroba | M | Lv 63]', '[Black Belt: Ace Trainer Sandokan, Mabster | M | Lv 61]', '[Salac Berry: Ace Trainer Sandokan, Huntabre | M | Lv 64]', '[Nugget: Merchant Harpagon, Vaultevour | M | Lv 63]', '[Nugget: Merchant Harpagon, Chantruth | M | Lv 64]', '[Choice Band: Fucking L. Jackson, Motherfuck | F | Lv 69]', '[Choice Band: Fucking L. Jackson, Motherfuck | M | Lv 69]', '[Choice Band: Fucking L. Jackson, Motherfuck | M | Lv 69]', '[Choice Band: Fucking L. Jackson, Motherfuck | M | Lv 69]', '[Choice Band: Fucking L. Jackson, Motherfuck | M | Lv 69]', '[Choice Band: Fucking L. Jackson, Motherfuck | M | Lv 69]', '[Focus Sash: Gentleman James, Glassannon | M | Lv 62]', '[Black Belt: Gentleman James, Batterex | M | Lv 61]', '[Scope Lens: Gentleman James, Cannonance | M | Lv 63]', '[Eviolite: Smogoon Hercules, Chompest | M | Lv 64]', '[Eviolite: Smogoon Hercules, Chancer | F | Lv 64]', '[Charcoal: Terrorist Ahmad, Lizakbar | M | Lv 61]', '[Leftovers: Terrorist Ahmad, Unjoy | F | Lv 64]', '[Kings Rock: Ace Duo Orn &amp; Smoug, Barbarkley | M | Lv 60]', '[Leftovers: Ace Duo Orn &amp; Smoug, Vaultevour | M | Lv 60]', '[Salac Berry: Ace Duo Orn &amp; Smoug, Glassannon | M | Lv 62]', '[Leftovers: Ace Duo Orn &amp; Smoug, Marleyzard | M | Lv 62]', '[Bright Powder: Ace Duo Orn &amp; Smoug, Scythear | M | Lv 64]', '[Leftovers: Ace Duo Orn &amp; Smoug, Manatank | M | Lv 64]']</t>
-  </si>
-  <si>
-    <t>["[B: ['15', '6'], Rare Candy]", "[B: ['10', '28'], Sun Stone]", "[B: ['9', '7'], TM22]", "[B: ['41', '29'], Dragon Fang]", "[B: ['30', '14'], Max Potion]", "[B: ['29', '37'], TM01]", "[H: ['26', '30'], Quick Ball]"]</t>
   </si>
   <si>
     <t>['[TM01: Focus Punch, 3F, East in the lowest level]', '[TM21: Frustration, from the Neckbeard on the south platform]', '[TM22: Solar Beam, on top of the waterfall | requires Waterfall]']</t>
@@ -1407,7 +1410,7 @@
         <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1421,7 +1424,7 @@
         <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1435,7 +1438,7 @@
         <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1449,7 +1452,7 @@
         <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1463,7 +1466,7 @@
         <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1477,7 +1480,7 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1491,7 +1494,7 @@
         <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1505,7 +1508,7 @@
         <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1519,7 +1522,7 @@
         <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1533,7 +1536,7 @@
         <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1547,12 +1550,12 @@
         <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1561,21 +1564,21 @@
         <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1589,7 +1592,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1603,7 +1606,7 @@
         <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1617,12 +1620,12 @@
         <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1631,21 +1634,21 @@
         <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1659,7 +1662,7 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1673,7 +1676,7 @@
         <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1687,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1701,7 +1704,7 @@
         <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1715,7 +1718,7 @@
         <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1729,7 +1732,7 @@
         <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1743,7 +1746,7 @@
         <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1757,7 +1760,7 @@
         <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1771,7 +1774,7 @@
         <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1785,7 +1788,7 @@
         <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1799,12 +1802,12 @@
         <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -1813,21 +1816,21 @@
         <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1841,7 +1844,7 @@
         <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1855,7 +1858,7 @@
         <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1869,7 +1872,7 @@
         <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1883,7 +1886,7 @@
         <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1897,7 +1900,7 @@
         <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1911,7 +1914,7 @@
         <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1925,12 +1928,12 @@
         <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -1939,21 +1942,21 @@
         <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1967,7 +1970,7 @@
         <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1981,12 +1984,12 @@
         <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -1995,21 +1998,21 @@
         <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2023,7 +2026,7 @@
         <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2037,7 +2040,7 @@
         <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2051,7 +2054,7 @@
         <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2065,7 +2068,7 @@
         <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2079,7 +2082,7 @@
         <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2093,12 +2096,12 @@
         <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -2107,21 +2110,21 @@
         <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2135,7 +2138,7 @@
         <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2149,7 +2152,7 @@
         <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2160,10 +2163,10 @@
         <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2177,7 +2180,7 @@
         <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2191,7 +2194,7 @@
         <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2205,7 +2208,7 @@
         <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2219,7 +2222,7 @@
         <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2230,10 +2233,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2247,7 +2250,7 @@
         <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2261,7 +2264,7 @@
         <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2275,7 +2278,7 @@
         <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2289,7 +2292,7 @@
         <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2303,7 +2306,7 @@
         <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2317,7 +2320,7 @@
         <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2331,7 +2334,7 @@
         <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2345,7 +2348,7 @@
         <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2359,12 +2362,12 @@
         <v>117</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
         <v>36</v>
@@ -2373,21 +2376,21 @@
         <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2401,7 +2404,7 @@
         <v>115</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2415,7 +2418,7 @@
         <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2429,7 +2432,7 @@
         <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2443,7 +2446,7 @@
         <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2457,12 +2460,12 @@
         <v>115</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
         <v>40</v>
@@ -2471,21 +2474,21 @@
         <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
         <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2499,7 +2502,7 @@
         <v>115</v>
       </c>
       <c r="D80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2513,7 +2516,7 @@
         <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2527,7 +2530,7 @@
         <v>115</v>
       </c>
       <c r="D82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2541,12 +2544,12 @@
         <v>115</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
         <v>43</v>
@@ -2555,21 +2558,21 @@
         <v>115</v>
       </c>
       <c r="D84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
         <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2583,7 +2586,7 @@
         <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2597,7 +2600,7 @@
         <v>115</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2611,7 +2614,7 @@
         <v>115</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2625,7 +2628,7 @@
         <v>115</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2639,7 +2642,7 @@
         <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2653,7 +2656,7 @@
         <v>115</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2667,7 +2670,7 @@
         <v>115</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2681,7 +2684,7 @@
         <v>117</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2695,7 +2698,7 @@
         <v>116</v>
       </c>
       <c r="D94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2709,7 +2712,7 @@
         <v>116</v>
       </c>
       <c r="D95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2723,7 +2726,7 @@
         <v>117</v>
       </c>
       <c r="D96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2734,10 +2737,10 @@
         <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2751,7 +2754,7 @@
         <v>115</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2762,10 +2765,10 @@
         <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2779,7 +2782,7 @@
         <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2793,7 +2796,7 @@
         <v>115</v>
       </c>
       <c r="D101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2807,7 +2810,7 @@
         <v>116</v>
       </c>
       <c r="D102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2821,12 +2824,12 @@
         <v>115</v>
       </c>
       <c r="D103" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
         <v>57</v>
@@ -2835,21 +2838,21 @@
         <v>115</v>
       </c>
       <c r="D104" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2863,7 +2866,7 @@
         <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2877,7 +2880,7 @@
         <v>115</v>
       </c>
       <c r="D107" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2891,12 +2894,12 @@
         <v>115</v>
       </c>
       <c r="D108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B109" t="s">
         <v>60</v>
@@ -2905,21 +2908,21 @@
         <v>115</v>
       </c>
       <c r="D109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
         <v>60</v>
       </c>
       <c r="C110" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2933,7 +2936,7 @@
         <v>116</v>
       </c>
       <c r="D111" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2947,12 +2950,12 @@
         <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B113" t="s">
         <v>61</v>
@@ -2961,21 +2964,21 @@
         <v>115</v>
       </c>
       <c r="D113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B114" t="s">
         <v>61</v>
       </c>
       <c r="C114" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2989,7 +2992,7 @@
         <v>116</v>
       </c>
       <c r="D115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3003,12 +3006,12 @@
         <v>115</v>
       </c>
       <c r="D116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B117" t="s">
         <v>62</v>
@@ -3017,21 +3020,21 @@
         <v>115</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B118" t="s">
         <v>62</v>
       </c>
       <c r="C118" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3045,12 +3048,12 @@
         <v>116</v>
       </c>
       <c r="D119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B120" t="s">
         <v>63</v>
@@ -3059,21 +3062,21 @@
         <v>115</v>
       </c>
       <c r="D120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B121" t="s">
         <v>63</v>
       </c>
       <c r="C121" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3087,7 +3090,7 @@
         <v>116</v>
       </c>
       <c r="D122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3101,12 +3104,12 @@
         <v>115</v>
       </c>
       <c r="D123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B124" t="s">
         <v>64</v>
@@ -3115,21 +3118,21 @@
         <v>115</v>
       </c>
       <c r="D124" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B125" t="s">
         <v>64</v>
       </c>
       <c r="C125" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3143,7 +3146,7 @@
         <v>115</v>
       </c>
       <c r="D126" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3157,7 +3160,7 @@
         <v>115</v>
       </c>
       <c r="D127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3171,7 +3174,7 @@
         <v>115</v>
       </c>
       <c r="D128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3185,12 +3188,12 @@
         <v>116</v>
       </c>
       <c r="D129" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
         <v>67</v>
@@ -3199,21 +3202,21 @@
         <v>115</v>
       </c>
       <c r="D130" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B131" t="s">
         <v>67</v>
       </c>
       <c r="C131" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D131" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3227,7 +3230,7 @@
         <v>115</v>
       </c>
       <c r="D132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3241,7 +3244,7 @@
         <v>115</v>
       </c>
       <c r="D133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3255,7 +3258,7 @@
         <v>115</v>
       </c>
       <c r="D134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3269,7 +3272,7 @@
         <v>115</v>
       </c>
       <c r="D135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3283,7 +3286,7 @@
         <v>115</v>
       </c>
       <c r="D136" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3297,7 +3300,7 @@
         <v>115</v>
       </c>
       <c r="D137" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3311,7 +3314,7 @@
         <v>115</v>
       </c>
       <c r="D138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3325,7 +3328,7 @@
         <v>115</v>
       </c>
       <c r="D139" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3339,7 +3342,7 @@
         <v>115</v>
       </c>
       <c r="D140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3353,7 +3356,7 @@
         <v>115</v>
       </c>
       <c r="D141" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3367,7 +3370,7 @@
         <v>115</v>
       </c>
       <c r="D142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3381,12 +3384,12 @@
         <v>115</v>
       </c>
       <c r="D143" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B144" t="s">
         <v>77</v>
@@ -3395,26 +3398,26 @@
         <v>115</v>
       </c>
       <c r="D144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s">
         <v>77</v>
       </c>
       <c r="C145" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B146" t="s">
         <v>78</v>
@@ -3423,21 +3426,21 @@
         <v>115</v>
       </c>
       <c r="D146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
         <v>78</v>
       </c>
       <c r="C147" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3451,7 +3454,7 @@
         <v>115</v>
       </c>
       <c r="D148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3465,7 +3468,7 @@
         <v>116</v>
       </c>
       <c r="D149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3479,7 +3482,7 @@
         <v>115</v>
       </c>
       <c r="D150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3493,12 +3496,12 @@
         <v>115</v>
       </c>
       <c r="D151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B152" t="s">
         <v>81</v>
@@ -3507,21 +3510,21 @@
         <v>115</v>
       </c>
       <c r="D152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B153" t="s">
         <v>81</v>
       </c>
       <c r="C153" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3535,7 +3538,7 @@
         <v>115</v>
       </c>
       <c r="D154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3549,12 +3552,12 @@
         <v>116</v>
       </c>
       <c r="D155" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B156" t="s">
         <v>83</v>
@@ -3563,21 +3566,21 @@
         <v>115</v>
       </c>
       <c r="D156" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B157" t="s">
         <v>83</v>
       </c>
       <c r="C157" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D157" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3591,7 +3594,7 @@
         <v>115</v>
       </c>
       <c r="D158" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3605,7 +3608,7 @@
         <v>116</v>
       </c>
       <c r="D159" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3619,12 +3622,12 @@
         <v>115</v>
       </c>
       <c r="D160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B161" t="s">
         <v>85</v>
@@ -3633,21 +3636,21 @@
         <v>115</v>
       </c>
       <c r="D161" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B162" t="s">
         <v>85</v>
       </c>
       <c r="C162" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D162" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3661,12 +3664,12 @@
         <v>115</v>
       </c>
       <c r="D163" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B164" t="s">
         <v>86</v>
@@ -3675,21 +3678,21 @@
         <v>115</v>
       </c>
       <c r="D164" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B165" t="s">
         <v>86</v>
       </c>
       <c r="C165" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D165" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3703,7 +3706,7 @@
         <v>116</v>
       </c>
       <c r="D166" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3717,12 +3720,12 @@
         <v>115</v>
       </c>
       <c r="D167" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B168" t="s">
         <v>87</v>
@@ -3731,21 +3734,21 @@
         <v>115</v>
       </c>
       <c r="D168" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B169" t="s">
         <v>87</v>
       </c>
       <c r="C169" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D169" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3759,12 +3762,12 @@
         <v>115</v>
       </c>
       <c r="D170" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B171" t="s">
         <v>89</v>
@@ -3773,26 +3776,26 @@
         <v>115</v>
       </c>
       <c r="D171" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B172" t="s">
         <v>89</v>
       </c>
       <c r="C172" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D172" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B173" t="s">
         <v>90</v>
@@ -3801,21 +3804,21 @@
         <v>115</v>
       </c>
       <c r="D173" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B174" t="s">
         <v>90</v>
       </c>
       <c r="C174" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D174" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3829,7 +3832,7 @@
         <v>116</v>
       </c>
       <c r="D175" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3843,7 +3846,7 @@
         <v>116</v>
       </c>
       <c r="D176" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3857,7 +3860,7 @@
         <v>115</v>
       </c>
       <c r="D177" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3871,7 +3874,7 @@
         <v>115</v>
       </c>
       <c r="D178" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3885,7 +3888,7 @@
         <v>116</v>
       </c>
       <c r="D179" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3899,12 +3902,12 @@
         <v>116</v>
       </c>
       <c r="D180" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B181" t="s">
         <v>95</v>
@@ -3913,21 +3916,21 @@
         <v>115</v>
       </c>
       <c r="D181" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B182" t="s">
         <v>95</v>
       </c>
       <c r="C182" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3941,12 +3944,12 @@
         <v>115</v>
       </c>
       <c r="D183" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B184" t="s">
         <v>96</v>
@@ -3955,21 +3958,21 @@
         <v>115</v>
       </c>
       <c r="D184" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B185" t="s">
         <v>96</v>
       </c>
       <c r="C185" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D185" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3983,7 +3986,7 @@
         <v>115</v>
       </c>
       <c r="D186" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3997,7 +4000,7 @@
         <v>116</v>
       </c>
       <c r="D187" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4011,7 +4014,7 @@
         <v>116</v>
       </c>
       <c r="D188" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4025,7 +4028,7 @@
         <v>115</v>
       </c>
       <c r="D189" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4039,7 +4042,7 @@
         <v>115</v>
       </c>
       <c r="D190" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4050,10 +4053,10 @@
         <v>99</v>
       </c>
       <c r="C191" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D191" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4064,10 +4067,10 @@
         <v>100</v>
       </c>
       <c r="C192" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D192" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4078,15 +4081,15 @@
         <v>101</v>
       </c>
       <c r="C193" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D193" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B194" t="s">
         <v>102</v>
@@ -4095,21 +4098,21 @@
         <v>115</v>
       </c>
       <c r="D194" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B195" t="s">
         <v>102</v>
       </c>
       <c r="C195" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D195" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4123,7 +4126,7 @@
         <v>115</v>
       </c>
       <c r="D196" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4137,7 +4140,7 @@
         <v>115</v>
       </c>
       <c r="D197" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4151,7 +4154,7 @@
         <v>115</v>
       </c>
       <c r="D198" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4165,7 +4168,7 @@
         <v>115</v>
       </c>
       <c r="D199" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4179,7 +4182,7 @@
         <v>116</v>
       </c>
       <c r="D200" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4193,7 +4196,7 @@
         <v>116</v>
       </c>
       <c r="D201" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4207,7 +4210,7 @@
         <v>115</v>
       </c>
       <c r="D202" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4221,7 +4224,7 @@
         <v>117</v>
       </c>
       <c r="D203" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4232,10 +4235,10 @@
         <v>107</v>
       </c>
       <c r="C204" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D204" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4249,7 +4252,7 @@
         <v>116</v>
       </c>
       <c r="D205" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4263,12 +4266,12 @@
         <v>115</v>
       </c>
       <c r="D206" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B207" t="s">
         <v>109</v>
@@ -4277,21 +4280,21 @@
         <v>115</v>
       </c>
       <c r="D207" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B208" t="s">
         <v>109</v>
       </c>
       <c r="C208" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D208" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4305,7 +4308,7 @@
         <v>116</v>
       </c>
       <c r="D209" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4319,7 +4322,7 @@
         <v>116</v>
       </c>
       <c r="D210" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4333,7 +4336,7 @@
         <v>115</v>
       </c>
       <c r="D211" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4347,7 +4350,7 @@
         <v>115</v>
       </c>
       <c r="D212" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4361,7 +4364,7 @@
         <v>116</v>
       </c>
       <c r="D213" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4372,10 +4375,10 @@
         <v>111</v>
       </c>
       <c r="C214" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D214" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4389,7 +4392,7 @@
         <v>116</v>
       </c>
       <c r="D215" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4403,7 +4406,7 @@
         <v>115</v>
       </c>
       <c r="D216" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4417,7 +4420,7 @@
         <v>115</v>
       </c>
       <c r="D217" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4431,7 +4434,7 @@
         <v>115</v>
       </c>
       <c r="D218" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4445,7 +4448,7 @@
         <v>116</v>
       </c>
       <c r="D219" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
